--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-tma-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tma-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-tma-req-3:The tumorMarkerAnalyte element is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -490,7 +490,7 @@
     <t>tumorMarkerAnalyte</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte|0.2.0}
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -838,8 +838,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) Clinically relevant time/time-period for observation</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2260" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,9 +84,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing a tumor marker observation for a cancer patient, including the type of tumor marker and its value. 
+    <t xml:space="preserve">A profile representing a tumor marker observation for a cancer patient, including the type of tumor marker and its value. 
 This profile extends the base mCODE [TumorMarkerTest profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tumor-marker-test) to include specific constraints and requirements for Onconova.
-If relied on the same use context as mCODE, namely for substances found in tissue or blood or other body fluids that may be a sign of cancer or certain benign (non-cancer) conditions measured at the levels of the protein and substance post-RNA protein synthesis (not at genomic level).</t>
+If relied on the same use context as mCODE, namely for substances found in tissue or blood or other body fluids that may be a sign of cancer or certain benign (non-cancer) conditions measured at the levels of the protein and substance post-RNA protein synthesis (not at genomic level).
+**Conformance:**
+Observation resources representing a tumor marker in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -116,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tumor-marker-test|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tumor-marker-test</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -379,7 +381,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -470,36 +472,20 @@
     <t>relatedCondition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-related-condition|4.0.0}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-related-condition}
 </t>
   </si>
   <si>
-    <t>Condition associated with this test.</t>
-  </si>
-  <si>
-    <t>Associates the tumor marker test with a condition, if one exists. Condition can be given by a reference or a code. In the case of a screening test such as prostate-specific antigen (PSA), there may be no existing condition to reference.</t>
+    <t>Related Condition Extension</t>
+  </si>
+  <si>
+    <t>A condition that has a relationship with the resource.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>Observation.extension:tumorMarkerAnalyte</t>
-  </si>
-  <si>
-    <t>tumorMarkerAnalyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte|0.2.0}
-</t>
-  </si>
-  <si>
-    <t>Tumor Marker Analyte</t>
-  </si>
-  <si>
-    <t>The specific analyte or substance being measured as a tumor marker, such as PSA, CA-125, or CEA.</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -558,7 +544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -587,7 +573,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -612,10 +598,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>(USCDI) registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
@@ -670,7 +653,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -700,7 +683,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-clinical-result-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -722,10 +705,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-tumor-marker-test-vs|4.0.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-marker-tests</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -746,10 +726,106 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.extension:tumorMarkerAnalyte</t>
+  </si>
+  <si>
+    <t>tumorMarkerAnalyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte}
+</t>
+  </si>
+  <si>
+    <t>Tumor Marker Analyte</t>
+  </si>
+  <si>
+    <t>The specific analyte or substance being measured as a tumor marker, such as PSA, CA-125, or CEA.</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -780,14 +856,8 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource|4.0.1)
+    <t xml:space="preserve">Reference(Resource)
 </t>
-  </si>
-  <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
-    <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
@@ -803,14 +873,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
@@ -881,12 +945,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
@@ -902,14 +960,8 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
-  </si>
-  <si>
-    <t>Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
@@ -982,10 +1034,13 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t>obs-6
@@ -1002,12 +1057,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
   </si>
   <si>
@@ -1017,7 +1066,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1060,12 +1109,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
@@ -1076,7 +1119,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1109,7 +1152,7 @@
     <t>Methods for simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1121,16 +1164,10 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-human-specimen|4.0.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-human-specimen)
 </t>
   </si>
   <si>
-    <t>(USCDI) Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
@@ -1149,14 +1186,8 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
-  </si>
-  <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
-    <t>The device used to generate the observation data.</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1181,12 +1212,6 @@
 </t>
   </si>
   <si>
-    <t>Provides guide for interpretation</t>
-  </si>
-  <si>
-    <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
-  </si>
-  <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.</t>
   </si>
   <si>
@@ -1206,22 +1231,6 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.extension</t>
   </si>
   <si>
@@ -1229,9 +1238,6 @@
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1254,7 +1260,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1304,7 +1310,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1337,7 +1343,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1374,16 +1380,10 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1415,12 +1415,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1457,7 +1451,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1501,6 +1495,12 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1829,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1838,7 +1838,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.12109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1848,7 +1848,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1863,10 +1863,10 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>81</v>
@@ -3088,41 +3088,43 @@
         <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>20</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3194,7 +3196,7 @@
         <v>20</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>20</v>
@@ -3205,14 +3207,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3225,25 +3227,23 @@
         <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J12" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K12" t="s" s="2">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3292,7 +3292,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3304,22 +3304,22 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>20</v>
@@ -3327,14 +3327,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3353,17 +3353,17 @@
         <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>20</v>
@@ -3412,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3427,19 +3427,19 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>20</v>
@@ -3447,14 +3447,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3473,18 +3473,18 @@
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3547,16 +3547,16 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -3565,46 +3565,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -3628,13 +3630,13 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -3652,13 +3654,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -3667,30 +3669,30 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3701,31 +3703,31 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3750,37 +3752,35 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -3789,32 +3789,34 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>92</v>
@@ -3835,19 +3837,19 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3857,7 +3859,7 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>20</v>
@@ -3872,29 +3874,31 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AC17" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3918,10 +3922,10 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>20</v>
@@ -3929,16 +3933,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="D18" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3954,22 +3956,22 @@
         <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3979,7 +3981,7 @@
         <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>20</v>
@@ -3994,13 +3996,11 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4018,13 +4018,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -4033,66 +4033,62 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>20</v>
+        <v>219</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>20</v>
+        <v>223</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -4116,11 +4112,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4138,10 +4136,10 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>91</v>
@@ -4150,33 +4148,33 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AP19" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="B20" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4187,32 +4185,28 @@
         <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4248,90 +4242,90 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>237</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4380,7 +4374,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4392,7 +4386,7 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4401,13 +4395,13 @@
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4415,21 +4409,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4441,19 +4435,19 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4502,13 +4496,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4517,34 +4511,34 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>257</v>
+        <v>20</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4554,7 +4548,7 @@
         <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>20</v>
@@ -4563,19 +4557,19 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4624,7 +4618,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4633,36 +4627,36 @@
         <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>266</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4670,13 +4664,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>20</v>
@@ -4685,18 +4679,20 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -4744,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4759,19 +4755,19 @@
         <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>20</v>
@@ -4779,10 +4775,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4805,18 +4801,18 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>281</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4864,7 +4860,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4879,44 +4875,44 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -4925,19 +4921,19 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>290</v>
+        <v>184</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4986,7 +4982,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4995,44 +4991,44 @@
         <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>294</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>20</v>
+        <v>274</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>20</v>
+        <v>279</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>91</v>
@@ -5044,22 +5040,22 @@
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5084,13 +5080,13 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5108,7 +5104,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5117,25 +5113,25 @@
         <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>286</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>20</v>
@@ -5143,21 +5139,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5166,23 +5162,21 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>292</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>312</v>
+        <v>184</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5206,13 +5200,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5230,13 +5224,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -5248,27 +5242,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5288,22 +5282,20 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>323</v>
+        <v>184</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5352,7 +5344,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5367,30 +5359,30 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>20</v>
+        <v>303</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5398,33 +5390,35 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>202</v>
+        <v>305</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5448,13 +5442,13 @@
         <v>20</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>20</v>
@@ -5472,7 +5466,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5481,36 +5475,36 @@
         <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>311</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5524,7 +5518,7 @@
         <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5533,19 +5527,19 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5570,13 +5564,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -5594,7 +5588,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5603,7 +5597,7 @@
         <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>103</v>
@@ -5615,10 +5609,10 @@
         <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>134</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -5627,26 +5621,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5655,18 +5649,20 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>350</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
@@ -5690,13 +5686,13 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>331</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>20</v>
@@ -5714,13 +5710,13 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
@@ -5732,27 +5728,27 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5763,7 +5759,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -5775,18 +5771,20 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5834,13 +5832,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -5852,27 +5850,27 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>365</v>
+        <v>343</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5883,7 +5881,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -5895,20 +5893,18 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>368</v>
+        <v>196</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>369</v>
+        <v>184</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>370</v>
+        <v>184</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -5932,13 +5928,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5956,45 +5952,45 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>20</v>
+        <v>349</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6017,16 +6013,20 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>377</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6050,13 +6050,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>20</v>
+        <v>359</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6074,7 +6074,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6086,7 +6086,7 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
@@ -6095,10 +6095,10 @@
         <v>20</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6107,26 +6107,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -6135,16 +6135,16 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>383</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>158</v>
+        <v>364</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6194,81 +6194,79 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
+        <v>366</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>20</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>388</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6316,45 +6314,45 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>134</v>
+        <v>374</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>20</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6365,7 +6363,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -6377,16 +6375,20 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6434,19 +6436,19 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>380</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
@@ -6455,10 +6457,10 @@
         <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6469,10 +6471,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6495,13 +6497,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>392</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>399</v>
+        <v>226</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>400</v>
+        <v>227</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6552,7 +6554,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>398</v>
+        <v>228</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6561,10 +6563,10 @@
         <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
@@ -6573,10 +6575,10 @@
         <v>20</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>401</v>
+        <v>229</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6587,21 +6589,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6613,20 +6615,18 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6650,13 +6650,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>407</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6674,31 +6674,31 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>232</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6709,14 +6709,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>20</v>
+        <v>388</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6729,25 +6729,25 @@
         <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>414</v>
+        <v>153</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>415</v>
+        <v>154</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6772,13 +6772,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>416</v>
+        <v>20</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6796,7 +6796,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6808,19 +6808,19 @@
         <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>409</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6831,10 +6831,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6857,18 +6857,16 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>419</v>
+        <v>393</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>422</v>
-      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
       </c>
@@ -6916,7 +6914,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6925,7 +6923,7 @@
         <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>103</v>
@@ -6937,10 +6935,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6951,10 +6949,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6977,13 +6975,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7034,7 +7032,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7043,7 +7041,7 @@
         <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>103</v>
@@ -7055,10 +7053,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7069,10 +7067,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7083,7 +7081,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7092,21 +7090,23 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>429</v>
+        <v>196</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7130,13 +7130,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>408</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -7154,13 +7154,13 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
@@ -7172,13 +7172,13 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>434</v>
+        <v>334</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7189,10 +7189,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7212,21 +7212,23 @@
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>436</v>
+        <v>196</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -7250,13 +7252,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>417</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7274,7 +7276,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7292,13 +7294,13 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>20</v>
+        <v>410</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7309,10 +7311,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7323,7 +7325,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7332,22 +7334,20 @@
         <v>20</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7396,13 +7396,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -7417,10 +7417,10 @@
         <v>20</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7431,10 +7431,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7457,13 +7457,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>377</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7514,7 +7514,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7526,7 +7526,7 @@
         <v>20</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
@@ -7535,10 +7535,10 @@
         <v>20</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>381</v>
+        <v>428</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>20</v>
@@ -7549,14 +7549,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7572,19 +7572,19 @@
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>136</v>
+        <v>430</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>184</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>384</v>
+        <v>184</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>158</v>
+        <v>431</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7634,7 +7634,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7646,7 +7646,7 @@
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
@@ -7655,10 +7655,10 @@
         <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>20</v>
@@ -7669,14 +7669,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7689,26 +7689,24 @@
         <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7756,7 +7754,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7768,7 +7766,7 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -7777,10 +7775,10 @@
         <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>134</v>
+        <v>439</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
@@ -7791,10 +7789,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7802,10 +7800,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -7817,19 +7815,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>452</v>
+        <v>184</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>453</v>
+        <v>184</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>222</v>
+        <v>442</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7854,13 +7852,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7878,13 +7876,13 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
@@ -7896,16 +7894,16 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>227</v>
+        <v>443</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>228</v>
+        <v>444</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>229</v>
+        <v>20</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>20</v>
@@ -7913,10 +7911,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7936,23 +7934,19 @@
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>460</v>
+        <v>226</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8000,7 +7994,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>458</v>
+        <v>228</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8012,44 +8006,44 @@
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>299</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8061,20 +8055,18 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>465</v>
+        <v>385</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>466</v>
+        <v>386</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8098,13 +8090,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8122,19 +8114,19 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>464</v>
+        <v>232</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>468</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8143,10 +8135,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>308</v>
+        <v>229</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8157,14 +8149,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>310</v>
+        <v>388</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8177,25 +8169,25 @@
         <v>20</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>311</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>312</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>313</v>
+        <v>153</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>314</v>
+        <v>154</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8220,13 +8212,13 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>316</v>
+        <v>20</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -8244,7 +8236,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>469</v>
+        <v>391</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8256,33 +8248,33 @@
         <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>318</v>
+        <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>319</v>
+        <v>134</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8290,10 +8282,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -8302,22 +8294,22 @@
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>371</v>
+        <v>451</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8342,13 +8334,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>20</v>
+        <v>452</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>20</v>
+        <v>453</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8366,13 +8358,13 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
@@ -8384,23 +8376,511 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>374</v>
+        <v>220</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>375</v>
+        <v>221</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AP54" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP54">
+  <autoFilter ref="A1:AP58">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8410,7 +8890,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-tma-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tma-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-tma-req-3:The tumorMarkerAnalyte element is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-tma-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tma-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-tma-req-3:The tumorMarkerAnalyte element is required and must be provided. {code.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte').exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,7 +280,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-tma-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tma-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-tma-req-3:The tumorMarkerAnalyte element is required and must be provided. {code.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-tma-req-1:The subject element is required and must be provided. {subject.exists()}o-tma-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-tma-req-3:The tumorMarkerAnalyte element is required and must be provided. {code.extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-marker-analyte').exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-marker.xlsx
+++ b/StructureDefinition-onconova-tumor-marker.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
